--- a/datasheets/compare/compare_algs_S-N2.xlsx
+++ b/datasheets/compare/compare_algs_S-N2.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>61</v>
+        <v>397</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>178</v>
+        <v>335</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7">
@@ -510,32 +510,32 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B8" t="n">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>402</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>227</v>
+        <v>437</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12">
@@ -565,21 +565,21 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>260</v>
+        <v>461</v>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>366</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>348</v>
       </c>
       <c r="C18" t="n">
-        <v>49</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>360</v>
+        <v>111</v>
       </c>
       <c r="C20" t="n">
-        <v>43</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="C21" t="n">
-        <v>49</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>194</v>
+        <v>412</v>
       </c>
       <c r="C22" t="n">
-        <v>36</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="C26" t="n">
-        <v>51</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -741,21 +741,21 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="C28" t="n">
-        <v>21</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="C30" t="n">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>191</v>
+        <v>354</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C35" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>452</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>539</v>
+        <v>312</v>
       </c>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>181</v>
+        <v>333</v>
       </c>
       <c r="C40" t="n">
-        <v>34</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C41" t="n">
-        <v>18</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42">
@@ -895,21 +895,21 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="C43" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>297</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>179</v>
+        <v>270</v>
       </c>
       <c r="C45" t="n">
-        <v>44</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>325</v>
+        <v>165</v>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48">
@@ -961,21 +961,21 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>22</v>
+        <v>457</v>
       </c>
       <c r="C49" t="n">
-        <v>27</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="C50" t="n">
-        <v>74</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51">
@@ -994,32 +994,32 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="C52" t="n">
-        <v>28</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B53" t="n">
-        <v>502</v>
+        <v>195</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="C54" t="n">
-        <v>20</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55">
@@ -1038,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>494</v>
+        <v>126</v>
       </c>
       <c r="C56" t="n">
-        <v>10</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>391</v>
       </c>
       <c r="C58" t="n">
-        <v>69</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>219</v>
+        <v>503</v>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="C60" t="n">
-        <v>52</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>416</v>
+        <v>214</v>
       </c>
       <c r="C61" t="n">
-        <v>80</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="C62" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="C65" t="n">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="C66" t="n">
-        <v>48</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>291</v>
+        <v>107</v>
       </c>
       <c r="C67" t="n">
-        <v>12</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>213</v>
+        <v>319</v>
       </c>
       <c r="C68" t="n">
-        <v>56</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69">
@@ -1192,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>532</v>
+        <v>437</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="C70" t="n">
-        <v>13</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>177</v>
+        <v>357</v>
       </c>
       <c r="C72" t="n">
-        <v>38</v>
+        <v>393</v>
       </c>
     </row>
     <row r="73">
@@ -1236,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>37</v>
+        <v>462</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="C74" t="n">
-        <v>14</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C75" t="n">
-        <v>46</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77">
@@ -1280,21 +1280,21 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="C77" t="n">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>118</v>
+        <v>682</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>706</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>57</v>
+        <v>468</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>498</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="C81" t="n">
-        <v>24</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>324</v>
+        <v>204</v>
       </c>
       <c r="C82" t="n">
-        <v>11</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>452</v>
+        <v>62</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -1368,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="C85" t="n">
-        <v>45</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="C86" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>385</v>
+        <v>503</v>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>559</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="C88" t="n">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>322</v>
       </c>
       <c r="C89" t="n">
-        <v>35</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="C90" t="n">
-        <v>9</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>263</v>
+        <v>91</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="C92" t="n">
-        <v>20</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>45</v>
+        <v>496</v>
       </c>
       <c r="C93" t="n">
-        <v>26</v>
+        <v>538</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>430</v>
+        <v>118</v>
       </c>
       <c r="C94" t="n">
-        <v>17</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>489</v>
+        <v>235</v>
       </c>
       <c r="C95" t="n">
-        <v>15</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>148</v>
+        <v>327</v>
       </c>
       <c r="C96" t="n">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="C97" t="n">
-        <v>27</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>371</v>
+        <v>39</v>
       </c>
       <c r="C98" t="n">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>119</v>
+        <v>326</v>
       </c>
       <c r="C99" t="n">
-        <v>44</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="C100" t="n">
-        <v>38</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/datasheets/compare/compare_algs_S-N2.xlsx
+++ b/datasheets/compare/compare_algs_S-N2.xlsx
@@ -452,13 +452,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>397</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>453</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -466,43 +466,43 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>425</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>289</v>
+        <v>463</v>
       </c>
       <c r="C4" t="n">
-        <v>327</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C5" t="n">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>286</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -510,32 +510,32 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="C7" t="n">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="C8" t="n">
-        <v>436</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10">
@@ -543,43 +543,43 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C10" t="n">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>437</v>
+        <v>335</v>
       </c>
       <c r="C11" t="n">
-        <v>493</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B12" t="n">
-        <v>279</v>
+        <v>352</v>
       </c>
       <c r="C12" t="n">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n">
-        <v>461</v>
+        <v>242</v>
       </c>
       <c r="C13" t="n">
-        <v>501</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14">
@@ -587,32 +587,32 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B15" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C15" t="n">
-        <v>95</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="C16" t="n">
-        <v>299</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>38</v>
+        <v>338</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18">
@@ -631,54 +631,54 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>368</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B19" t="n">
-        <v>247</v>
+        <v>519</v>
       </c>
       <c r="C19" t="n">
-        <v>275</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="C20" t="n">
-        <v>163</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="B21" t="n">
-        <v>205</v>
+        <v>373</v>
       </c>
       <c r="C21" t="n">
-        <v>273</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>412</v>
+        <v>171</v>
       </c>
       <c r="C22" t="n">
-        <v>474</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23">
@@ -686,54 +686,54 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="C23" t="n">
-        <v>305</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="C24" t="n">
-        <v>117</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>488</v>
       </c>
       <c r="C25" t="n">
-        <v>62</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>176</v>
+        <v>465</v>
       </c>
       <c r="C26" t="n">
-        <v>234</v>
+        <v>549</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C27" t="n">
-        <v>254</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>407</v>
+        <v>256</v>
       </c>
       <c r="C28" t="n">
-        <v>429</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="C29" t="n">
-        <v>171</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="C30" t="n">
-        <v>99</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31">
@@ -774,32 +774,32 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="C31" t="n">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="C34" t="n">
-        <v>255</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35">
@@ -818,54 +818,54 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="C35" t="n">
-        <v>68</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>150</v>
+        <v>581</v>
       </c>
       <c r="C36" t="n">
-        <v>162</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="B37" t="n">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C37" t="n">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C38" t="n">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>312</v>
+        <v>525</v>
       </c>
       <c r="C39" t="n">
-        <v>344</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40">
@@ -873,21 +873,21 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="C40" t="n">
-        <v>417</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="C41" t="n">
-        <v>181</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="C42" t="n">
-        <v>29</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43">
@@ -906,65 +906,65 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="C43" t="n">
-        <v>48</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B45" t="n">
-        <v>270</v>
+        <v>458</v>
       </c>
       <c r="C45" t="n">
-        <v>356</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B46" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>165</v>
+        <v>507</v>
       </c>
       <c r="C47" t="n">
-        <v>197</v>
+        <v>557</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>347</v>
       </c>
       <c r="C48" t="n">
-        <v>39</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49">
@@ -972,21 +972,21 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>457</v>
+        <v>97</v>
       </c>
       <c r="C49" t="n">
-        <v>543</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n">
+        <v>211</v>
+      </c>
+      <c r="C50" t="n">
         <v>259</v>
-      </c>
-      <c r="C50" t="n">
-        <v>307</v>
       </c>
     </row>
     <row r="51">
@@ -994,32 +994,32 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>303</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B52" t="n">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="C52" t="n">
-        <v>266</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="C53" t="n">
-        <v>211</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54">
@@ -1027,32 +1027,32 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C54" t="n">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="C55" t="n">
-        <v>195</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="C56" t="n">
-        <v>192</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C57" t="n">
-        <v>339</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>391</v>
+        <v>464</v>
       </c>
       <c r="C58" t="n">
-        <v>409</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59">
@@ -1082,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>503</v>
+        <v>24</v>
       </c>
       <c r="C59" t="n">
-        <v>573</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C60" t="n">
-        <v>260</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61">
@@ -1104,32 +1104,32 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="C61" t="n">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>511</v>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C63" t="n">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
@@ -1137,43 +1137,43 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>455</v>
+        <v>102</v>
       </c>
       <c r="C64" t="n">
-        <v>485</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C65" t="n">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>362</v>
+        <v>195</v>
       </c>
       <c r="C66" t="n">
-        <v>406</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>107</v>
+        <v>575</v>
       </c>
       <c r="C67" t="n">
-        <v>191</v>
+        <v>639</v>
       </c>
     </row>
     <row r="68">
@@ -1181,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>319</v>
+        <v>46</v>
       </c>
       <c r="C68" t="n">
-        <v>345</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>437</v>
+        <v>41</v>
       </c>
       <c r="C69" t="n">
-        <v>455</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70">
@@ -1203,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="C70" t="n">
-        <v>374</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C71" t="n">
-        <v>119</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72">
@@ -1225,54 +1225,54 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>357</v>
+        <v>482</v>
       </c>
       <c r="C72" t="n">
-        <v>393</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B73" t="n">
-        <v>462</v>
+        <v>573</v>
       </c>
       <c r="C73" t="n">
-        <v>546</v>
+        <v>631</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>224</v>
+        <v>490</v>
       </c>
       <c r="C74" t="n">
-        <v>326</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B75" t="n">
-        <v>128</v>
+        <v>357</v>
       </c>
       <c r="C75" t="n">
-        <v>172</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B76" t="n">
-        <v>127</v>
+        <v>287</v>
       </c>
       <c r="C76" t="n">
-        <v>187</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77">
@@ -1280,21 +1280,21 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="C77" t="n">
-        <v>115</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="B78" t="n">
-        <v>682</v>
+        <v>446</v>
       </c>
       <c r="C78" t="n">
-        <v>706</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79">
@@ -1302,32 +1302,32 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C79" t="n">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>468</v>
+        <v>250</v>
       </c>
       <c r="C80" t="n">
-        <v>498</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="C81" t="n">
-        <v>119</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82">
@@ -1335,54 +1335,54 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="C82" t="n">
-        <v>270</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B83" t="n">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="C83" t="n">
-        <v>88</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B84" t="n">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="C84" t="n">
-        <v>25</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B85" t="n">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="C85" t="n">
-        <v>342</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="C86" t="n">
-        <v>160</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
@@ -1390,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="C87" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="C88" t="n">
-        <v>102</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89">
@@ -1412,98 +1412,98 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="C89" t="n">
-        <v>346</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C90" t="n">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>91</v>
+        <v>459</v>
       </c>
       <c r="C91" t="n">
-        <v>123</v>
+        <v>467</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B92" t="n">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>244</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>496</v>
+        <v>115</v>
       </c>
       <c r="C93" t="n">
-        <v>538</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C94" t="n">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>235</v>
+        <v>421</v>
       </c>
       <c r="C95" t="n">
-        <v>315</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>327</v>
+        <v>146</v>
       </c>
       <c r="C96" t="n">
-        <v>423</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C97" t="n">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98">
@@ -1511,43 +1511,43 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="C98" t="n">
-        <v>107</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>326</v>
+        <v>491</v>
       </c>
       <c r="C99" t="n">
-        <v>404</v>
+        <v>549</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>202</v>
+        <v>447</v>
       </c>
       <c r="C100" t="n">
-        <v>262</v>
+        <v>491</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="B101" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C101" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
